--- a/Pycharm/finance_data.xlsx
+++ b/Pycharm/finance_data.xlsx
@@ -847,7 +847,7 @@
         <v>1098.099975585938</v>
       </c>
       <c r="E15">
-        <v>1031.42529296875</v>
+        <v>1031.425170898438</v>
       </c>
       <c r="F15">
         <v>1200289</v>
@@ -1021,7 +1021,7 @@
         <v>1123.099975585938</v>
       </c>
       <c r="E21">
-        <v>1054.907348632812</v>
+        <v>1054.9072265625</v>
       </c>
       <c r="F21">
         <v>1907589</v>
@@ -1079,7 +1079,7 @@
         <v>1086.25</v>
       </c>
       <c r="E23">
-        <v>1020.294860839844</v>
+        <v>1020.294799804688</v>
       </c>
       <c r="F23">
         <v>3284841</v>
@@ -1108,7 +1108,7 @@
         <v>1095.699951171875</v>
       </c>
       <c r="E24">
-        <v>1029.1708984375</v>
+        <v>1029.170776367188</v>
       </c>
       <c r="F24">
         <v>2086377</v>
@@ -1166,7 +1166,7 @@
         <v>1063.050048828125</v>
       </c>
       <c r="E26">
-        <v>998.50341796875</v>
+        <v>998.5034790039062</v>
       </c>
       <c r="F26">
         <v>2782697</v>
@@ -1195,7 +1195,7 @@
         <v>1074.75</v>
       </c>
       <c r="E27">
-        <v>1009.492980957031</v>
+        <v>1009.493041992188</v>
       </c>
       <c r="F27">
         <v>1767945</v>
@@ -1224,7 +1224,7 @@
         <v>1079.400024414062</v>
       </c>
       <c r="E28">
-        <v>1013.860717773438</v>
+        <v>1013.860656738281</v>
       </c>
       <c r="F28">
         <v>1846534</v>
@@ -1253,7 +1253,7 @@
         <v>1077.599975585938</v>
       </c>
       <c r="E29">
-        <v>1012.169921875</v>
+        <v>1012.169860839844</v>
       </c>
       <c r="F29">
         <v>1321534</v>
@@ -1282,7 +1282,7 @@
         <v>1081.5</v>
       </c>
       <c r="E30">
-        <v>1015.833190917969</v>
+        <v>1015.833129882812</v>
       </c>
       <c r="F30">
         <v>1389325</v>
@@ -1369,7 +1369,7 @@
         <v>1107.349975585938</v>
       </c>
       <c r="E33">
-        <v>1040.113525390625</v>
+        <v>1040.113647460938</v>
       </c>
       <c r="F33">
         <v>3318866</v>
@@ -1456,7 +1456,7 @@
         <v>1115.5</v>
       </c>
       <c r="E36">
-        <v>1047.768798828125</v>
+        <v>1047.768676757812</v>
       </c>
       <c r="F36">
         <v>3492348</v>
@@ -1485,7 +1485,7 @@
         <v>1111.900024414062</v>
       </c>
       <c r="E37">
-        <v>1044.387451171875</v>
+        <v>1044.387329101562</v>
       </c>
       <c r="F37">
         <v>1432154</v>
@@ -1514,7 +1514,7 @@
         <v>1119.699951171875</v>
       </c>
       <c r="E38">
-        <v>1051.713745117188</v>
+        <v>1051.713623046875</v>
       </c>
       <c r="F38">
         <v>1227245</v>
@@ -1543,7 +1543,7 @@
         <v>1108.099975585938</v>
       </c>
       <c r="E39">
-        <v>1040.817993164062</v>
+        <v>1040.818115234375</v>
       </c>
       <c r="F39">
         <v>1876800</v>
@@ -1572,7 +1572,7 @@
         <v>1130.849975585938</v>
       </c>
       <c r="E40">
-        <v>1062.186645507812</v>
+        <v>1062.1865234375</v>
       </c>
       <c r="F40">
         <v>2478834</v>
@@ -1659,7 +1659,7 @@
         <v>1175</v>
       </c>
       <c r="E43">
-        <v>1103.655883789062</v>
+        <v>1103.656005859375</v>
       </c>
       <c r="F43">
         <v>3732838</v>
@@ -1804,7 +1804,7 @@
         <v>1159.400024414062</v>
       </c>
       <c r="E48">
-        <v>1089.003173828125</v>
+        <v>1089.003295898438</v>
       </c>
       <c r="F48">
         <v>1274203</v>
@@ -1862,7 +1862,7 @@
         <v>1228.650024414062</v>
       </c>
       <c r="E50">
-        <v>1154.048461914062</v>
+        <v>1154.048583984375</v>
       </c>
       <c r="F50">
         <v>6033106</v>
@@ -4994,7 +4994,7 @@
         <v>1077.599975585938</v>
       </c>
       <c r="E158">
-        <v>1012.169860839844</v>
+        <v>1012.169921875</v>
       </c>
       <c r="F158">
         <v>1321534</v>
@@ -5052,7 +5052,7 @@
         <v>1077.199951171875</v>
       </c>
       <c r="E160">
-        <v>1011.794250488281</v>
+        <v>1011.794189453125</v>
       </c>
       <c r="F160">
         <v>4392418</v>
@@ -5081,7 +5081,7 @@
         <v>1093.599975585938</v>
       </c>
       <c r="E161">
-        <v>1027.198486328125</v>
+        <v>1027.198364257812</v>
       </c>
       <c r="F161">
         <v>2188899</v>
@@ -5110,7 +5110,7 @@
         <v>1107.349975585938</v>
       </c>
       <c r="E162">
-        <v>1040.113647460938</v>
+        <v>1040.113525390625</v>
       </c>
       <c r="F162">
         <v>3318866</v>
@@ -5168,7 +5168,7 @@
         <v>1119.050048828125</v>
       </c>
       <c r="E164">
-        <v>1051.103271484375</v>
+        <v>1051.103149414062</v>
       </c>
       <c r="F164">
         <v>2360795</v>
@@ -5226,7 +5226,7 @@
         <v>1111.900024414062</v>
       </c>
       <c r="E166">
-        <v>1044.387329101562</v>
+        <v>1044.38720703125</v>
       </c>
       <c r="F166">
         <v>1432154</v>
@@ -5284,7 +5284,7 @@
         <v>1108.099975585938</v>
       </c>
       <c r="E168">
-        <v>1040.818115234375</v>
+        <v>1040.817993164062</v>
       </c>
       <c r="F168">
         <v>1876800</v>
@@ -5313,7 +5313,7 @@
         <v>1130.849975585938</v>
       </c>
       <c r="E169">
-        <v>1062.1865234375</v>
+        <v>1062.186645507812</v>
       </c>
       <c r="F169">
         <v>2478834</v>
@@ -5342,7 +5342,7 @@
         <v>1121.449951171875</v>
       </c>
       <c r="E170">
-        <v>1053.357421875</v>
+        <v>1053.357299804688</v>
       </c>
       <c r="F170">
         <v>1899656</v>
@@ -5371,7 +5371,7 @@
         <v>1148</v>
       </c>
       <c r="E171">
-        <v>1078.29541015625</v>
+        <v>1078.295532226562</v>
       </c>
       <c r="F171">
         <v>2773593</v>
@@ -5487,7 +5487,7 @@
         <v>1147.150024414062</v>
       </c>
       <c r="E175">
-        <v>1077.4970703125</v>
+        <v>1077.496948242188</v>
       </c>
       <c r="F175">
         <v>2088505</v>
@@ -5516,7 +5516,7 @@
         <v>1161.449951171875</v>
       </c>
       <c r="E176">
-        <v>1090.9287109375</v>
+        <v>1090.928588867188</v>
       </c>
       <c r="F176">
         <v>1212566</v>
@@ -5545,7 +5545,7 @@
         <v>1159.400024414062</v>
       </c>
       <c r="E177">
-        <v>1089.003295898438</v>
+        <v>1089.003173828125</v>
       </c>
       <c r="F177">
         <v>1274203</v>
@@ -8706,7 +8706,7 @@
         <v>1244.699951171875</v>
       </c>
       <c r="E286">
-        <v>1169.123779296875</v>
+        <v>1169.123901367188</v>
       </c>
       <c r="F286">
         <v>2293881</v>
